--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Calca-Calcrl.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Calca-Calcrl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.32830332714988</v>
+        <v>0.1472293333333334</v>
       </c>
       <c r="H2">
-        <v>0.32830332714988</v>
+        <v>0.441688</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2923521718179941</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2923521718179941</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.471903527247</v>
+        <v>51.12972666666667</v>
       </c>
       <c r="N2">
-        <v>38.471903527247</v>
+        <v>153.38918</v>
       </c>
       <c r="O2">
-        <v>0.4236567317719878</v>
+        <v>0.485667061686854</v>
       </c>
       <c r="P2">
-        <v>0.4236567317719878</v>
+        <v>0.485667061686854</v>
       </c>
       <c r="Q2">
-        <v>12.63045392978439</v>
+        <v>7.52779557064889</v>
       </c>
       <c r="R2">
-        <v>12.63045392978439</v>
+        <v>67.75016013584001</v>
       </c>
       <c r="S2">
-        <v>0.4236567317719878</v>
+        <v>0.1419858202646155</v>
       </c>
       <c r="T2">
-        <v>0.4236567317719878</v>
+        <v>0.1419858202646155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.32830332714988</v>
+        <v>0.1472293333333334</v>
       </c>
       <c r="H3">
-        <v>0.32830332714988</v>
+        <v>0.441688</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2923521718179941</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2923521718179941</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.9138884497142</v>
+        <v>13.00848233333333</v>
       </c>
       <c r="N3">
-        <v>12.9138884497142</v>
+        <v>39.025447</v>
       </c>
       <c r="O3">
-        <v>0.1422091259716111</v>
+        <v>0.1235639578717746</v>
       </c>
       <c r="P3">
-        <v>0.1422091259716111</v>
+        <v>0.1235639578717746</v>
       </c>
       <c r="Q3">
-        <v>4.239672544483577</v>
+        <v>1.915230181615111</v>
       </c>
       <c r="R3">
-        <v>4.239672544483577</v>
+        <v>17.237071634536</v>
       </c>
       <c r="S3">
-        <v>0.1422091259716111</v>
+        <v>0.03612419144224043</v>
       </c>
       <c r="T3">
-        <v>0.1422091259716111</v>
+        <v>0.03612419144224043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.32830332714988</v>
+        <v>0.1472293333333334</v>
       </c>
       <c r="H4">
-        <v>0.32830332714988</v>
+        <v>0.441688</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2923521718179941</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2923521718179941</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.43246084478386</v>
+        <v>8.403045333333333</v>
       </c>
       <c r="N4">
-        <v>7.43246084478386</v>
+        <v>25.209136</v>
       </c>
       <c r="O4">
-        <v>0.08184705673048671</v>
+        <v>0.07981819192712479</v>
       </c>
       <c r="P4">
-        <v>0.08184705673048671</v>
+        <v>0.0798181919271248</v>
       </c>
       <c r="Q4">
-        <v>2.440101624253749</v>
+        <v>1.237174762396445</v>
       </c>
       <c r="R4">
-        <v>2.440101624253749</v>
+        <v>11.134572861568</v>
       </c>
       <c r="S4">
-        <v>0.08184705673048671</v>
+        <v>0.02333502176048042</v>
       </c>
       <c r="T4">
-        <v>0.08184705673048671</v>
+        <v>0.02333502176048042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.32830332714988</v>
+        <v>0.1472293333333334</v>
       </c>
       <c r="H5">
-        <v>0.32830332714988</v>
+        <v>0.441688</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2923521718179941</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2923521718179941</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.5521022842522</v>
+        <v>12.63665566666666</v>
       </c>
       <c r="N5">
-        <v>12.5521022842522</v>
+        <v>37.90996699999999</v>
       </c>
       <c r="O5">
-        <v>0.1382250978781897</v>
+        <v>0.1200320797173281</v>
       </c>
       <c r="P5">
-        <v>0.1382250978781897</v>
+        <v>0.1200320797173282</v>
       </c>
       <c r="Q5">
-        <v>4.120896942645606</v>
+        <v>1.860486389366222</v>
       </c>
       <c r="R5">
-        <v>4.120896942645606</v>
+        <v>16.744377504296</v>
       </c>
       <c r="S5">
-        <v>0.1382250978781897</v>
+        <v>0.03509163919319148</v>
       </c>
       <c r="T5">
-        <v>0.1382250978781897</v>
+        <v>0.03509163919319148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.32830332714988</v>
+        <v>0.1472293333333334</v>
       </c>
       <c r="H6">
-        <v>0.32830332714988</v>
+        <v>0.441688</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2923521718179941</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.2923521718179941</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.5032324386012</v>
+        <v>14.572368</v>
       </c>
       <c r="N6">
-        <v>14.5032324386012</v>
+        <v>43.717104</v>
       </c>
       <c r="O6">
-        <v>0.1597111526003805</v>
+        <v>0.1384188731248098</v>
       </c>
       <c r="P6">
-        <v>0.1597111526003805</v>
+        <v>0.1384188731248098</v>
       </c>
       <c r="Q6">
-        <v>4.761459464020842</v>
+        <v>2.145480025728</v>
       </c>
       <c r="R6">
-        <v>4.761459464020842</v>
+        <v>19.309320231552</v>
       </c>
       <c r="S6">
-        <v>0.1597111526003805</v>
+        <v>0.04046705817863751</v>
       </c>
       <c r="T6">
-        <v>0.1597111526003805</v>
+        <v>0.04046705817863752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.441688</v>
+      </c>
+      <c r="I7">
+        <v>0.2923521718179941</v>
+      </c>
+      <c r="J7">
+        <v>0.2923521718179941</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.527042000000001</v>
+      </c>
+      <c r="N7">
+        <v>16.581126</v>
+      </c>
+      <c r="O7">
+        <v>0.05249983567210868</v>
+      </c>
+      <c r="P7">
+        <v>0.05249983567210868</v>
+      </c>
+      <c r="Q7">
+        <v>0.8137427089653335</v>
+      </c>
+      <c r="R7">
+        <v>7.323684380688001</v>
+      </c>
+      <c r="S7">
+        <v>0.01534844097882877</v>
+      </c>
+      <c r="T7">
+        <v>0.01534844097882877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3563733333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.06912</v>
+      </c>
+      <c r="I8">
+        <v>0.7076478281820058</v>
+      </c>
+      <c r="J8">
+        <v>0.7076478281820059</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>51.12972666666667</v>
+      </c>
+      <c r="N8">
+        <v>153.38918</v>
+      </c>
+      <c r="O8">
+        <v>0.485667061686854</v>
+      </c>
+      <c r="P8">
+        <v>0.485667061686854</v>
+      </c>
+      <c r="Q8">
+        <v>18.22127112462222</v>
+      </c>
+      <c r="R8">
+        <v>163.9914401216</v>
+      </c>
+      <c r="S8">
+        <v>0.3436812414222385</v>
+      </c>
+      <c r="T8">
+        <v>0.3436812414222385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3563733333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.06912</v>
+      </c>
+      <c r="I9">
+        <v>0.7076478281820058</v>
+      </c>
+      <c r="J9">
+        <v>0.7076478281820059</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.00848233333333</v>
+      </c>
+      <c r="N9">
+        <v>39.025447</v>
+      </c>
+      <c r="O9">
+        <v>0.1235639578717746</v>
+      </c>
+      <c r="P9">
+        <v>0.1235639578717746</v>
+      </c>
+      <c r="Q9">
+        <v>4.635876210737777</v>
+      </c>
+      <c r="R9">
+        <v>41.72288589663999</v>
+      </c>
+      <c r="S9">
+        <v>0.08743976642953415</v>
+      </c>
+      <c r="T9">
+        <v>0.08743976642953416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3563733333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.06912</v>
+      </c>
+      <c r="I10">
+        <v>0.7076478281820058</v>
+      </c>
+      <c r="J10">
+        <v>0.7076478281820059</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.403045333333333</v>
+      </c>
+      <c r="N10">
+        <v>25.209136</v>
+      </c>
+      <c r="O10">
+        <v>0.07981819192712479</v>
+      </c>
+      <c r="P10">
+        <v>0.0798181919271248</v>
+      </c>
+      <c r="Q10">
+        <v>2.99462127559111</v>
+      </c>
+      <c r="R10">
+        <v>26.95159148032</v>
+      </c>
+      <c r="S10">
+        <v>0.05648317016664436</v>
+      </c>
+      <c r="T10">
+        <v>0.05648317016664439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3563733333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.06912</v>
+      </c>
+      <c r="I11">
+        <v>0.7076478281820058</v>
+      </c>
+      <c r="J11">
+        <v>0.7076478281820059</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.63665566666666</v>
+      </c>
+      <c r="N11">
+        <v>37.90996699999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1200320797173281</v>
+      </c>
+      <c r="P11">
+        <v>0.1200320797173282</v>
+      </c>
+      <c r="Q11">
+        <v>4.503367102115554</v>
+      </c>
+      <c r="R11">
+        <v>40.53030391903999</v>
+      </c>
+      <c r="S11">
+        <v>0.08494044052413664</v>
+      </c>
+      <c r="T11">
+        <v>0.08494044052413667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.32830332714988</v>
-      </c>
-      <c r="H7">
-        <v>0.32830332714988</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.93555259660574</v>
-      </c>
-      <c r="N7">
-        <v>4.93555259660574</v>
-      </c>
-      <c r="O7">
-        <v>0.05435083504734406</v>
-      </c>
-      <c r="P7">
-        <v>0.05435083504734406</v>
-      </c>
-      <c r="Q7">
-        <v>1.620358338788894</v>
-      </c>
-      <c r="R7">
-        <v>1.620358338788894</v>
-      </c>
-      <c r="S7">
-        <v>0.05435083504734406</v>
-      </c>
-      <c r="T7">
-        <v>0.05435083504734406</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3563733333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.06912</v>
+      </c>
+      <c r="I12">
+        <v>0.7076478281820058</v>
+      </c>
+      <c r="J12">
+        <v>0.7076478281820059</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>14.572368</v>
+      </c>
+      <c r="N12">
+        <v>43.717104</v>
+      </c>
+      <c r="O12">
+        <v>0.1384188731248098</v>
+      </c>
+      <c r="P12">
+        <v>0.1384188731248098</v>
+      </c>
+      <c r="Q12">
+        <v>5.193203358719999</v>
+      </c>
+      <c r="R12">
+        <v>46.73883022847999</v>
+      </c>
+      <c r="S12">
+        <v>0.09795181494617224</v>
+      </c>
+      <c r="T12">
+        <v>0.09795181494617228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3563733333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.06912</v>
+      </c>
+      <c r="I13">
+        <v>0.7076478281820058</v>
+      </c>
+      <c r="J13">
+        <v>0.7076478281820059</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.527042000000001</v>
+      </c>
+      <c r="N13">
+        <v>16.581126</v>
+      </c>
+      <c r="O13">
+        <v>0.05249983567210868</v>
+      </c>
+      <c r="P13">
+        <v>0.05249983567210868</v>
+      </c>
+      <c r="Q13">
+        <v>1.969690381013333</v>
+      </c>
+      <c r="R13">
+        <v>17.72721342912</v>
+      </c>
+      <c r="S13">
+        <v>0.0371513946932799</v>
+      </c>
+      <c r="T13">
+        <v>0.03715139469327991</v>
       </c>
     </row>
   </sheetData>
